--- a/app/data/Relatorio.xlsx
+++ b/app/data/Relatorio.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G611"/>
+  <dimension ref="A1:G614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16928,6 +16928,87 @@
         </is>
       </c>
     </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Jogador 1</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>100</v>
+      </c>
+      <c r="C612" t="n">
+        <v>98</v>
+      </c>
+      <c r="D612" t="n">
+        <v>100</v>
+      </c>
+      <c r="E612" t="n">
+        <v>0</v>
+      </c>
+      <c r="F612" t="b">
+        <v>0</v>
+      </c>
+      <c r="G612" t="inlineStr">
+        <is>
+          <t>VITORIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Jogador 1</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>100</v>
+      </c>
+      <c r="C613" t="n">
+        <v>98</v>
+      </c>
+      <c r="D613" t="n">
+        <v>100</v>
+      </c>
+      <c r="E613" t="n">
+        <v>0</v>
+      </c>
+      <c r="F613" t="b">
+        <v>0</v>
+      </c>
+      <c r="G613" t="inlineStr">
+        <is>
+          <t>VITORIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Jogador 1</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>100</v>
+      </c>
+      <c r="C614" t="n">
+        <v>98</v>
+      </c>
+      <c r="D614" t="n">
+        <v>100</v>
+      </c>
+      <c r="E614" t="n">
+        <v>0</v>
+      </c>
+      <c r="F614" t="b">
+        <v>0</v>
+      </c>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>VITORIA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
